--- a/biology/Botanique/Calanthe_sylvatica/Calanthe_sylvatica.xlsx
+++ b/biology/Botanique/Calanthe_sylvatica/Calanthe_sylvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calanthe sylvatica est une espèce de plantes de la famille des Orchidées et du genre Calanthe, présente dans plusieurs pays d'Afrique subsaharienne.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 décembre 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
-variété Calanthe sylvatica var. geerinckiana Stévart ; elle est endémique de l'île de Sao Tomé[4] et doit son épithète au botaniste belge Daniel Geerinck, spécialiste des Orchidées d'Afrique centrale, qui la découvrit.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
+variété Calanthe sylvatica var. geerinckiana Stévart ; elle est endémique de l'île de Sao Tomé et doit son épithète au botaniste belge Daniel Geerinck, spécialiste des Orchidées d'Afrique centrale, qui la découvrit.
 variété Calanthe sylvatica var. natalensis Rchb. f.
 variété Calanthe sylvatica var. pallidipetala Schltr.</t>
         </is>
